--- a/Stats_template_backup.xlsx
+++ b/Stats_template_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jodisilverman/Repositories/ps1c_d_analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FFBF173-FF3D-2149-A5F9-C8331E032CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E58306-E1B5-E445-9CA7-B7575D916560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{C3E9E8DF-EFB6-5446-A3D7-8A361C8EF7B3}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="C3:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
